--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï œôäåòîïå âïòðïíéîàîéå.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um0709.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When you recycle, you can trade\nup for even more amazing items…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m not being deceived, right?\nThis is OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Предметы для переработки можно\nобменять на ещё более полезные вещи...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Меня не обманывают, да?\nВсё именно так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñåäíåóú äìÿ ðåñåñàáïóëé íïçîï\nïáíåîÿóû îà åþæ áïìåå ðïìåèîúå âåþé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íåîÿ îå ïáíàîúâàýó, äà?\nÂòæ éíåîîï óàë?</t>
   </si>
 </sst>
 </file>
@@ -574,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,64 +795,96 @@
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>356</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <v>359</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B17" s="4">
         <v>334</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>337</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -205,6 +205,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Íåîÿ îå ïáíàîúâàýó, äà?\nÂòæ éíåîîï óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m really enjoying the \"Big\nTreasure\" [CS:I]Prize Tickets[CR] at the Recycle Shop.\nI can\'t get enough!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder if I\'ll win on my very\nfirst [CS:I]Prize Ticket[CR]. Ho-ho-ho!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One day, I\'ll win big!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне нравится идея [CS:I]Призовых\nБилетов[CR] Центра Переработки. Я только и\nделаю, что собираю их!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что я получу за свой\nпервый [CS:I]Призовой Билет[CR]. Хо-хо-хо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Однажды я выиграю по-крупному!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå îñàâéóòÿ éäåÿ [CS:I]Ðñéèïâúö\nÁéìåóïâ[CR] Øåîóñà Ðåñåñàáïóëé. Ÿ óïìûëï é\näåìàý, œóï òïáéñàý éö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï ÿ ðïìôœô èà òâïê\nðåñâúê [CS:I]Ðñéèïâïê Áéìåó[CR]. Öï-öï-öï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïäîàçäú ÿ âúéãñàý ðï-ëñôðîïíô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1301.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I love to hear [CS:N]Wobbuffet[CR]\nblurt out, \"That\'s right!\" when someone wins\non a [CS:I]Prize Ticket[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh... I\'d love to hear her yell\nthat again…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я обожаю, когда [CS:N]Воббаффет[CR]\nвыкрикивает: \"Всё так!\", когда кто-нибудь\nполучает выигрыш за [CS:I]Призовой Билет[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О... Я так хочу снова услышать\nеё крик...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïáïçàý, ëïãäà [CS:N]Âïááàõõåó[CR]\nâúëñéëéâàåó: \"Âòæ óàë!\", ëïãäà ëóï-îéáôäû\nðïìôœàåó âúéãñúš èà [CS:I]Ðñéèïâïê Áéìåó[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï... Ÿ óàë öïœô òîïâà ôòìúšàóû\nåæ ëñéë...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1502.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1602.ssb</t>
   </si>
 </sst>
 </file>
@@ -595,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,17 +935,149 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7">
         <v>337</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="8" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4">
+        <v>301</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>308</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7">
+        <v>315</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4">
+        <v>301</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>308</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7">
+        <v>315</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4">
+        <v>279</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4">
+        <v>282</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -265,6 +265,33 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um1602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, you! I heard a rumor\nthat the fate of the world is at stake.\nIs that true?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a lie, right? It has to be.\nI don\'t know what I\'d do otherwise.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Послушайте! Ходят слухи, что\nмир находится на грани катастрофы. Это\nправда?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это же ложь, да? Похоже, так и\nесть. Иначе я не знаю что теперь делать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìôšàêóå! Öïäÿó òìôöé, œóï\níéñ îàöïäéóòÿ îà ãñàîé ëàóàòóñïõú. Üóï\nðñàâäà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï çå ìïçû, äà? Ðïöïçå, óàë é\nåòóû. Éîàœå ÿ îå èîàý œóï óåðåñû äåìàóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2402.ssb</t>
   </si>
 </sst>
 </file>
@@ -349,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -373,6 +400,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,9 +1109,59 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4">
+        <v>257</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="9">
+        <v>260</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -292,6 +292,153 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/um2502.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe it\'s too late to say it,\nbut now I know the rumor about the world\nbeing at stake was true…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But your team stopped it, right?\nI\'m truly grateful! ♪</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, уже поздновато об этом\nговорить, но я узнала, что мир\nи правда находился на грани катастрофы...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но ваша команда предотвратила\nеё, да? Я так вам благодарна! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, ôçå ðïèäîïâàóï ïá üóïí\nãïâïñéóû, îï ÿ ôèîàìà, œóï íéñ\né ðñàâäà îàöïäéìòÿ îà ãñàîé ëàóàòóñïõú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï âàšà ëïíàîäà ðñåäïóâñàóéìà\nåæ, äà? Ÿ óàë âàí áìàãïäàñîà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just how tall is a mountain that\ncan reach beyond the sky?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t even imagine!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/us3107.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Насколько гора может быть\nвысокой, чтобы достигать небес?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Даже не представляю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàòëïìûëï ãïñà íïçåó áúóû\nâúòïëïê, œóïáú äïòóéãàóû îåáåò?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàçå îå ðñåäòóàâìÿý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I wonder what can be found at\nthe summit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ooh!\nI\'m so excited!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, что можно найти на\nвершине?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ооо! Мне так любопытно!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, œóï íïçîï îàêóé îà\nâåñšéîå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïïï! Íîå óàë ìýáïðúóîï!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, did you already find out?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s a rumor that this\nmountain hides many hidden places.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Слушай, ты уже знаешь об этом?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что в этой горе есть\nмножество потайных мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òìôšàê, óú ôçå èîàåšû ïá üóïí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï â üóïê ãïñå åòóû\níîïçåòóâï ðïóàêîúö íåòó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Looks like there\'s a strange\ngroup near the 5th Station Clearing,\npicking fights with other explorers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t think I could handle them\non my own. I\'d prefer to get someone to\ncome with me.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P24A/us3103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У Поляны 5-го Перехода орудут\nкакие-то странные типы, которые бьют\nдругих исследователей!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не уверена, что справлюсь с\nними сама. Мне потребуется чья-нибудь\nпомощь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô Ðïìÿîú 5-ãï Ðåñåöïäà ïñôäôó\nëàëéå-óï òóñàîîúå óéðú, ëïóïñúå áûýó\näñôãéö éòòìåäïâàóåìåê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå ôâåñåîà, œóï òðñàâìýòû ò\nîéíé òàíà. Íîå ðïóñåáôåóòÿ œûÿ-îéáôäû\nðïíïþû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? The strange group at the\n5th Station Clearing weren\'t bad folks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, no! I must have\nmisunderstooood!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Эта группа на Поляне 5-го\nПерехода не была плохой?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, нет! Я ошиииииблась!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Üóà ãñôððà îà Ðïìÿîå 5-ãï\nÐåñåöïäà îå áúìà ðìïöïê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, îåó! Ÿ ïšéééééáìàòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I...I climbed up here all on\nmy own!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I...I didn\'t even use the\nGondola once!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P26A/us3105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я... Я сама добралась сюда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я... Я ни разу не пользовалась\nГондолой!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ... Ÿ òàíà äïáñàìàòû òýäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ... Ÿ îé ñàèô îå ðïìûèïâàìàòû\nÃïîäïìïê!</t>
   </si>
 </sst>
 </file>
@@ -688,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,13 +1303,238 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="4">
+        <v>235</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7">
+        <v>238</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4">
+        <v>213</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7">
+        <v>216</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="4">
+        <v>191</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7">
+        <v>194</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4">
+        <v>169</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7">
+        <v>172</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="4">
+        <v>153</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7">
+        <v>156</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="4">
+        <v>129</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7">
+        <v>132</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="4">
+        <v>104</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>107</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="165">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -439,6 +439,81 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ... Ÿ îé ñàèô îå ðïìûèïâàìàòû\nÃïîäïìïê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I got caught up in an avalanche\nnear the 7th Station Clearing!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When I was buried in that cold\nsnow, I lost all hope!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then I saw this glittering light,\nand someone came and rescued me…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [CS:N]Ampharos[CR]... My hero…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us3102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я попала в лавину рядом с\nПоляной 7-го Перехода!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я уже ни на что не надеялась,\nутопая в холодном снегу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но затем я увидела мерцающий\nсвет, кто-то пришёл и спас меня...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, [CS:N]Амфарос[CR]... Мой герой...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïðàìà â ìàâéîô ñÿäïí ò\nÐïìÿîïê 7-ãï Ðåñåöïäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôçå îé îà œóï îå îàäåÿìàòû,\nôóïðàÿ â öïìïäîïí òîåãô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï èàóåí ÿ ôâéäåìà íåñøàýþéê\nòâåó, ëóï-óï ðñéšæì é òðàò íåîÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, [CS:N]Àíõàñïò[CR]... Íïê ãåñïê...</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0201.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m done climbing the mountain\nfor now. I\'ll just relax here for a bit.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хватит с меня гор. Лучше пока\nотдохну здесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öâàóéó ò íåîÿ ãïñ. Ìôœšå ðïëà\nïóäïöîô èäåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/P01P04A/us2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever since I came back from\n[CS:P]Sky Peak[CR], the daily routine has been\nkind of boring.</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С тех пор, как я вернулась с\n[CS:P]Небесного Пика[CR], повседневная жизнь стала\nказаться скучной.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò óåö ðïñ, ëàë ÿ âåñîôìàòû ò\n[CS:P]Îåáåòîïãï Ðéëà[CR], ðïâòåäîåâîàÿ çéèîû òóàìà\nëàèàóûòÿ òëôœîïê.</t>
   </si>
 </sst>
 </file>
@@ -835,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,17 +1597,129 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7">
         <v>107</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="8" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="4">
+        <v>73</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="4">
+        <v>76</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="4">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="7">
+        <v>82</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="4">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="4">
+        <v>41</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Октиллери.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="172">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Ò óåö ðïñ, ëàë ÿ âåñîôìàòû ò\n[CS:P]Îåáåòîïãï Ðéëà[CR], ðïâòåäîåâîàÿ çéèîû òóàìà\nëàèàóûòÿ òëôœîïê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s terrible! I don\'t do anything\nother than trying to win at Big Treasure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t go on like this!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой ужас! Я пытаюсь выиграть\nБольшое Сокровище и больше ничего не\nделаю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так больше не могу!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ôçàò! Ÿ ðúóàýòû âúéãñàóû\nÁïìûšïå Òïëñïâéþå é áïìûšå îéœåãï îå\näåìàý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë áïìûšå îå íïãô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2302.ssb</t>
   </si>
 </sst>
 </file>
@@ -553,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -594,11 +615,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -628,6 +660,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1706,20 +1744,54 @@
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="11">
         <v>41</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="12" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="4">
+        <v>18</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="4">
+        <v>21</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
